--- a/regionseng/3/business sector/by ownership.xlsx
+++ b/regionseng/3/business sector/by ownership.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125BFF12-E1EE-475E-9560-4FCA26B649B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-90" yWindow="30" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,11 +47,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="#.0;\-#.0;\-"/>
-    <numFmt numFmtId="166" formatCode="#.0_);\(#.0\);\-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
+    <numFmt numFmtId="165" formatCode="#.0_);\(#.0\);\-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -150,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -161,7 +162,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -169,25 +170,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,6 +281,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -313,6 +333,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,10 +525,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -501,7 +540,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +549,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -519,7 +558,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -563,8 +602,17 @@
       <c r="O5" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="11">
+        <v>2020</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -610,8 +658,17 @@
       <c r="O6" s="12">
         <v>558.70000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="12">
+        <v>542.6</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>637.39144008380106</v>
+      </c>
+      <c r="R6" s="12">
+        <v>710.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -657,8 +714,17 @@
       <c r="O7" s="13">
         <v>511.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="13">
+        <v>489.6</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>585.43246585616669</v>
+      </c>
+      <c r="R7" s="17">
+        <v>646.70000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -704,8 +770,17 @@
       <c r="O8" s="13">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="13">
+        <v>50.9</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>49.68590622763449</v>
+      </c>
+      <c r="R8" s="17">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -751,11 +826,22 @@
       <c r="O9" s="13">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.25">
+      <c r="P9" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>2.2730679999999999</v>
+      </c>
+      <c r="R9" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="14.25">
       <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.25">
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,16 +850,20 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="O11" s="14"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.25">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -817,8 +907,17 @@
       <c r="O13" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="11">
+        <v>2020</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -864,8 +963,17 @@
       <c r="O14" s="12">
         <v>388.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="12">
+        <v>405</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>508.60486390400007</v>
+      </c>
+      <c r="R14" s="12">
+        <v>565.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -911,8 +1019,17 @@
       <c r="O15" s="13">
         <v>336.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="13">
+        <v>341.6</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>444.26573506400007</v>
+      </c>
+      <c r="R15" s="17">
+        <v>489.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -958,8 +1075,17 @@
       <c r="O16" s="13">
         <v>41.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="13">
+        <v>50.1</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>52.355862840000007</v>
+      </c>
+      <c r="R16" s="17">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1005,11 +1131,23 @@
       <c r="O17" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="14.25">
+      <c r="P17" s="13">
+        <v>13.3</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>11.983266000000002</v>
+      </c>
+      <c r="R17" s="17">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14.25">
       <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="1:15" ht="14.25">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1018,12 +1156,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:15" ht="14.25">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25">
       <c r="N20" s="10"/>
       <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1067,8 +1209,17 @@
       <c r="O21" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="11">
+        <v>2020</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1114,8 +1265,17 @@
       <c r="O22" s="15">
         <v>9674</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="15">
+        <v>8121.6</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>8666.8996367580003</v>
+      </c>
+      <c r="R22" s="15">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1321,17 @@
       <c r="O23" s="16">
         <v>8681</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="16">
+        <v>7239.6</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>7701.205996435001</v>
+      </c>
+      <c r="R23" s="18">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="7" t="s">
         <v>8</v>
       </c>
@@ -1208,8 +1377,17 @@
       <c r="O24" s="16">
         <v>487</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="16">
+        <v>501</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>626.69364032299995</v>
+      </c>
+      <c r="R24" s="18">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -1255,11 +1433,22 @@
       <c r="O25" s="16">
         <v>506</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="14.25">
+      <c r="P25" s="16">
+        <v>381</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>339</v>
+      </c>
+      <c r="R25" s="18">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="14.25">
       <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.25">
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1272,11 +1461,15 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.25">
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25">
       <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1320,8 +1513,17 @@
       <c r="O29" s="11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="11">
+        <v>2020</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1367,8 +1569,17 @@
       <c r="O30" s="12">
         <v>672.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="12">
+        <v>708.1</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>763.4</v>
+      </c>
+      <c r="R30" s="12">
+        <v>951.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
@@ -1414,8 +1625,17 @@
       <c r="O31" s="13">
         <v>644.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="13">
+        <v>685.6</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>746.8</v>
+      </c>
+      <c r="R31" s="17">
+        <v>952.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
@@ -1461,8 +1681,17 @@
       <c r="O32" s="13">
         <v>899.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="13">
+        <v>786.9</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>708.1</v>
+      </c>
+      <c r="R32" s="17">
+        <v>870.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
@@ -1508,17 +1737,26 @@
       <c r="O33" s="13">
         <v>818.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P33" s="13">
+        <v>921.9</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>1131.4000000000001</v>
+      </c>
+      <c r="R33" s="17">
+        <v>1057.9000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:18">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:18">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:18">
       <c r="B38" s="6"/>
     </row>
   </sheetData>
